--- a/Reest Material 2023.xlsx
+++ b/Reest Material 2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -515,6 +515,102 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1dasd</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>п.Шубарколь</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ТОО Ki-bay</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1221221</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1dasd</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>п.Шубарколь</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ТОО Ki-bay</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ывафы</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>п.Бозшаколь</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ТОО Ki-bay</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>фывафыаф фыва</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reest Material 2023.xlsx
+++ b/Reest Material 2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -611,6 +611,38 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>фы</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>п.Бозшаколь</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ТОО Ki-bay</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>фыфы фы</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
